--- a/PropProAssistant/Test/BNC/39-2023.xlsx
+++ b/PropProAssistant/Test/BNC/39-2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Lote</t>
   </si>
@@ -42,6 +42,57 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Farmace</t>
+  </si>
+  <si>
+    <t>Hipolabor</t>
+  </si>
+  <si>
+    <t>Hypofarma</t>
+  </si>
+  <si>
+    <t>Isofarma</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Teuto</t>
+  </si>
+  <si>
+    <t>Blau</t>
+  </si>
+  <si>
+    <t>Sanval</t>
+  </si>
+  <si>
+    <t>Cristália</t>
+  </si>
+  <si>
+    <t>Takeda</t>
+  </si>
+  <si>
+    <t>Mylan</t>
+  </si>
+  <si>
+    <t>Halex Istar</t>
+  </si>
+  <si>
+    <t>Belfar</t>
+  </si>
+  <si>
+    <t>Nativita</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>União Química</t>
+  </si>
+  <si>
+    <t>Eurofarma</t>
   </si>
 </sst>
 </file>
@@ -972,14 +1023,14 @@
       <c r="B5" s="0">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="1">
+        <v>4.42</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -989,14 +1040,14 @@
       <c r="B6" s="0">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
+      <c r="C6" s="1">
+        <v>7.15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1006,14 +1057,14 @@
       <c r="B7" s="0">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
+      <c r="C7" s="1">
+        <v>2.99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1023,14 +1074,14 @@
       <c r="B8" s="0">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+      <c r="C8" s="1">
+        <v>0.65</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1057,14 +1108,14 @@
       <c r="B10" s="0">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
+      <c r="C10" s="1">
+        <v>12.87</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1074,14 +1125,14 @@
       <c r="B11" s="0">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
+      <c r="C11" s="1">
+        <v>76.7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1244,14 +1295,14 @@
       <c r="B21" s="0">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
+      <c r="C21" s="1">
+        <v>12.35</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1346,14 +1397,14 @@
       <c r="B27" s="0">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
+      <c r="C27" s="1">
+        <v>3.38</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1482,14 +1533,14 @@
       <c r="B35" s="0">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
+      <c r="C35" s="1">
+        <v>8.97</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1499,14 +1550,14 @@
       <c r="B36" s="0">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
+      <c r="C36" s="1">
+        <v>17.55</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1516,14 +1567,14 @@
       <c r="B37" s="0">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
+      <c r="C37" s="1">
+        <v>6.37</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1584,14 +1635,14 @@
       <c r="B41" s="0">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
+      <c r="C41" s="1">
+        <v>3.25</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1618,14 +1669,14 @@
       <c r="B43" s="0">
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
+      <c r="C43" s="1">
+        <v>44.2</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1958,14 +2009,14 @@
       <c r="B63" s="0">
         <v>62</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>5</v>
+      <c r="C63" s="1">
+        <v>3.9</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1975,14 +2026,14 @@
       <c r="B64" s="0">
         <v>63</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>5</v>
+      <c r="C64" s="1">
+        <v>10.4</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -2009,14 +2060,14 @@
       <c r="B66" s="0">
         <v>65</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>5</v>
+      <c r="C66" s="1">
+        <v>3.51</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -2094,14 +2145,14 @@
       <c r="B71" s="0">
         <v>70</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>5</v>
+      <c r="C71" s="1">
+        <v>1.95</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -2128,14 +2179,14 @@
       <c r="B73" s="0">
         <v>72</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
+      <c r="C73" s="1">
+        <v>24.7</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -2162,14 +2213,14 @@
       <c r="B75" s="0">
         <v>74</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>5</v>
+      <c r="C75" s="1">
+        <v>2.08</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -2264,14 +2315,14 @@
       <c r="B81" s="0">
         <v>80</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>5</v>
+      <c r="C81" s="1">
+        <v>89.7</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -2281,14 +2332,14 @@
       <c r="B82" s="0">
         <v>81</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>5</v>
+      <c r="C82" s="1">
+        <v>29.9</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -2451,14 +2502,14 @@
       <c r="B92" s="0">
         <v>91</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>5</v>
+      <c r="C92" s="1">
+        <v>7.15</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -2485,14 +2536,14 @@
       <c r="B94" s="0">
         <v>93</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>5</v>
+      <c r="C94" s="1">
+        <v>2.47</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -2587,14 +2638,14 @@
       <c r="B100" s="0">
         <v>99</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>5</v>
+      <c r="C100" s="1">
+        <v>1.24</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -2638,14 +2689,14 @@
       <c r="B103" s="0">
         <v>102</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>5</v>
+      <c r="C103" s="1">
+        <v>11.57</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -2706,14 +2757,14 @@
       <c r="B107" s="0">
         <v>106</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>5</v>
+      <c r="C107" s="1">
+        <v>6.37</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -2723,14 +2774,14 @@
       <c r="B108" s="0">
         <v>107</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>5</v>
+      <c r="C108" s="1">
+        <v>9.09</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -2978,14 +3029,14 @@
       <c r="B123" s="0">
         <v>122</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>5</v>
+      <c r="C123" s="1">
+        <v>8.97</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -3165,14 +3216,14 @@
       <c r="B134" s="0">
         <v>133</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>5</v>
+      <c r="C134" s="1">
+        <v>12.09</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
@@ -3199,14 +3250,14 @@
       <c r="B136" s="0">
         <v>135</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>5</v>
+      <c r="C136" s="1">
+        <v>3.77</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -3301,14 +3352,14 @@
       <c r="B142" s="0">
         <v>141</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>5</v>
+      <c r="C142" s="1">
+        <v>36.4</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
@@ -3318,14 +3369,14 @@
       <c r="B143" s="0">
         <v>142</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>5</v>
+      <c r="C143" s="1">
+        <v>3.89</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
@@ -3335,14 +3386,14 @@
       <c r="B144" s="0">
         <v>143</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>5</v>
+      <c r="C144" s="1">
+        <v>20.8</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -3352,14 +3403,14 @@
       <c r="B145" s="0">
         <v>144</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>5</v>
+      <c r="C145" s="1">
+        <v>4</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -3369,14 +3420,14 @@
       <c r="B146" s="0">
         <v>145</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>5</v>
+      <c r="C146" s="1">
+        <v>14.82</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -3522,14 +3573,14 @@
       <c r="B155" s="0">
         <v>154</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>5</v>
+      <c r="C155" s="1">
+        <v>12.35</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
@@ -3539,14 +3590,14 @@
       <c r="B156" s="0">
         <v>155</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>5</v>
+      <c r="C156" s="1">
+        <v>8.32</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
@@ -3556,14 +3607,14 @@
       <c r="B157" s="0">
         <v>156</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>5</v>
+      <c r="C157" s="1">
+        <v>9.36</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
@@ -3573,14 +3624,14 @@
       <c r="B158" s="0">
         <v>157</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>5</v>
+      <c r="C158" s="1">
+        <v>9.88</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159">
@@ -3590,14 +3641,14 @@
       <c r="B159" s="0">
         <v>158</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>5</v>
+      <c r="C159" s="1">
+        <v>14.17</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
@@ -3607,14 +3658,14 @@
       <c r="B160" s="0">
         <v>159</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>5</v>
+      <c r="C160" s="1">
+        <v>12.87</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161">
@@ -3658,14 +3709,14 @@
       <c r="B163" s="0">
         <v>162</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>5</v>
+      <c r="C163" s="1">
+        <v>12.87</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
@@ -3675,14 +3726,14 @@
       <c r="B164" s="0">
         <v>163</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>5</v>
+      <c r="C164" s="1">
+        <v>3.77</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -3777,14 +3828,14 @@
       <c r="B170" s="0">
         <v>169</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>5</v>
+      <c r="C170" s="1">
+        <v>21.48</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171">
@@ -3811,14 +3862,14 @@
       <c r="B172" s="0">
         <v>171</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>5</v>
+      <c r="C172" s="1">
+        <v>11.7</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -3845,14 +3896,14 @@
       <c r="B174" s="0">
         <v>173</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>5</v>
+      <c r="C174" s="1">
+        <v>3.25</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175">
@@ -3998,14 +4049,14 @@
       <c r="B183" s="0">
         <v>182</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>5</v>
+      <c r="C183" s="1">
+        <v>2.08</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184">
@@ -4032,14 +4083,14 @@
       <c r="B185" s="0">
         <v>184</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>5</v>
+      <c r="C185" s="1">
+        <v>23.4</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186">
@@ -4134,14 +4185,14 @@
       <c r="B191" s="0">
         <v>190</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>5</v>
+      <c r="C191" s="1">
+        <v>14.3</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192">
@@ -4151,14 +4202,14 @@
       <c r="B192" s="0">
         <v>191</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>5</v>
+      <c r="C192" s="1">
+        <v>7.67</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193">
@@ -4219,14 +4270,14 @@
       <c r="B196" s="0">
         <v>195</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>5</v>
+      <c r="C196" s="1">
+        <v>11.7</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
@@ -4270,7 +4321,15 @@
       <c r="B199" s="0">
         <v>198</v>
       </c>
-      <c r="C199" s="1"/>
+      <c r="C199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
